--- a/excelSubirPrueba/maquinasSubida.xlsx
+++ b/excelSubirPrueba/maquinasSubida.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0829498002000d34/Trabajo/Simple/AbmMcn/excelSubirPrueba/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tejer\OneDrive\Trabajo\Simple\AbmMcn\excelSubirPrueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="11_F25DC773A252ABDACC1048A7B91D70545ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90CC85D3-66F6-49D3-BD42-5A912DC2FEDB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0A9C8A-C662-437B-A662-62C75D81DB03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="5">
   <si>
     <t>TipoMaquina</t>
   </si>
@@ -92,10 +92,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -361,10 +357,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -418,6 +414,391 @@
         <v>3</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>9999</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>9999</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>9999</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>9999</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>9999</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>9999</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>9999</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>9999</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>9999</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>9999</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>9999</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16">
+        <v>9999</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>9999</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>9999</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19">
+        <v>9999</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>9999</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>9999</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>9999</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>9999</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24">
+        <v>9999</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25">
+        <v>9999</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26">
+        <v>9999</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27">
+        <v>9999</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>9999</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29">
+        <v>9999</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>9999</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31">
+        <v>9999</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32">
+        <v>9999</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>9999</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34">
+        <v>9999</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35">
+        <v>9999</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36">
+        <v>9999</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>9999</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38">
+        <v>9999</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39">
+        <v>9999</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
